--- a/src/datasets/pglib_opf_case89_pegase.xlsx
+++ b/src/datasets/pglib_opf_case89_pegase.xlsx
@@ -5,18 +5,19 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton Hinneck\Google Drive\Research\IEEE Datasets Julia\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton Hinneck\.julia\packages\PowerGrids\src\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B13865-1231-4F96-A035-D9CE4037D966}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B927D1E8-944F-43A4-942A-38CE626E6D83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFD34208-E987-4523-B597-80539962FC82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{DFD34208-E987-4523-B597-80539962FC82}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="5" r:id="rId1"/>
     <sheet name="gen" sheetId="2" r:id="rId2"/>
     <sheet name="gencost" sheetId="3" r:id="rId3"/>
     <sheet name="branch" sheetId="4" r:id="rId4"/>
+    <sheet name="global" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>bus_i</t>
   </si>
@@ -155,6 +156,33 @@
   <si>
     <t>test</t>
   </si>
+  <si>
+    <t>baseMVA</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>bibtex</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @article{Fliscounakis2013,
+  doi = {10.1109/tpwrs.2013.2251015},
+  url = {https://doi.org/10.1109/tpwrs.2013.2251015},
+  year = {2013},
+  month = nov,
+  publisher = {Institute of Electrical and Electronics Engineers ({IEEE})},
+  volume = {28},
+  number = {4},
+  pages = {4909--4917},
+  author = {Stephane Fliscounakis and Patrick Panciatici and Florin Capitanescu and Louis Wehenkel},
+  title = {Contingency Ranking With Respect to Overloads in Very Large Power Systems Taking Into Account Uncertainty,  Preventive,  and Corrective Actions},
+  journal = {{IEEE} Transactions on Power Systems}
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -189,13 +217,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,7 +548,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M90"/>
     </sheetView>
   </sheetViews>
@@ -13640,4 +13674,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43902172-D7B9-43CD-B86C-1D5504EE5AA6}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="3"/>
+    <col min="3" max="3" width="56.85546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>